--- a/trunk/my doc/files/LC Transmission.xlsx
+++ b/trunk/my doc/files/LC Transmission.xlsx
@@ -947,24 +947,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107041920"/>
-        <c:axId val="107044224"/>
+        <c:axId val="84217216"/>
+        <c:axId val="84243584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107041920"/>
+        <c:axId val="84217216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107044224"/>
+        <c:crossAx val="84243584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107044224"/>
+        <c:axId val="84243584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107041920"/>
+        <c:crossAx val="84217216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -985,7 +985,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1795,24 +1795,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114315648"/>
-        <c:axId val="114317184"/>
+        <c:axId val="89251200"/>
+        <c:axId val="95720576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114315648"/>
+        <c:axId val="89251200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114317184"/>
+        <c:crossAx val="95720576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114317184"/>
+        <c:axId val="95720576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1820,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114315648"/>
+        <c:crossAx val="89251200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1833,7 +1833,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1873,16 +1873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2192,7 +2192,7 @@
   <dimension ref="A1:BZ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/trunk/my doc/files/LC Transmission.xlsx
+++ b/trunk/my doc/files/LC Transmission.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="19056" windowHeight="7728"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="15456" windowHeight="7728" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>dn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,16 +65,40 @@
     <t>1-Tb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000000_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,21 +160,38 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -168,7 +209,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable=""/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -182,239 +223,240 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>0.99268221849809191</c:v>
+                  <c:v>0.99151701763425337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97097658160898881</c:v>
+                  <c:v>0.96640021573297852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93560936863340172</c:v>
+                  <c:v>0.9256233373473336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88775759995025505</c:v>
+                  <c:v>0.87075675213483361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82899839217830606</c:v>
+                  <c:v>0.80388956967922054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76124233516936302</c:v>
+                  <c:v>0.7275275645483138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68665343757706243</c:v>
+                  <c:v>0.64447191903048195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60755944203200052</c:v>
+                  <c:v>0.55768543963179884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52635673637636582</c:v>
+                  <c:v>0.47015352496638757</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44541429750115147</c:v>
+                  <c:v>0.38474735579451663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36698109004976043</c:v>
+                  <c:v>0.30409653529203723</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29310110655035504</c:v>
+                  <c:v>0.23047774868081217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22553979309726896</c:v>
+                  <c:v>0.16572498103779659</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16572498103779659</c:v>
+                  <c:v>0.11116549769177589</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11470467509978283</c:v>
+                  <c:v>6.758423822545781E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3123174234042201E-2</c:v>
+                  <c:v>3.5217600109692104E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.121607032772797E-2</c:v>
+                  <c:v>1.3775894748602252E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.882373138879926E-2</c:v>
+                  <c:v>2.4921498975437203E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4219789275267655E-3</c:v>
+                  <c:v>1.9350357999556067E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6786011357550985E-4</c:v>
+                  <c:v>5.3902682564535903E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9577343670772233E-3</c:v>
+                  <c:v>1.6376904505558877E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.4943741792750131E-3</c:v>
+                  <c:v>3.1338673470999154E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1359444646353094E-2</c:v>
+                  <c:v>4.8457655329847527E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6087588477546083E-2</c:v>
+                  <c:v>6.6012120818080791E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2238405173961111E-2</c:v>
+                  <c:v>8.2463894370808741E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.8462865873893261E-2</c:v>
+                  <c:v>9.6529299332443724E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3561130082619256E-2</c:v>
+                  <c:v>0.10723045908200139</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.6529299332443724E-2</c:v>
+                  <c:v>0.11392506126992853</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10659332080391305</c:v>
+                  <c:v>0.11631408708209505</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.11322900111339426</c:v>
+                  <c:v>0.11442837379399166</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11616786419661204</c:v>
+                  <c:v>0.10859613181256962</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11538934463070824</c:v>
+                  <c:v>9.9394601970672986E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11110050815976404</c:v>
+                  <c:v>8.7589854755972488E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.10370509834805895</c:v>
+                  <c:v>7.4069258299948371E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.3764192235467864E-2</c:v>
+                  <c:v>5.9771354552538999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.1951086501348414E-2</c:v>
+                  <c:v>4.5617782485182438E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.9003215709414617E-2</c:v>
+                  <c:v>3.2451493239936492E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5673921809685792E-2</c:v>
+                  <c:v>2.0984853197978364E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.268675460785866E-2</c:v>
+                  <c:v>1.1760380607675439E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0694700466439809E-2</c:v>
+                  <c:v>5.1258745258390345E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.0246332780746459E-2</c:v>
+                  <c:v>1.2246426979858249E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.1760380607675439E-2</c:v>
+                  <c:v>4.9041086237431022E-7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.5096533710950911E-3</c:v>
+                  <c:v>1.2161645854536745E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6146743030916576E-3</c:v>
+                  <c:v>4.4831177017817785E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6797930204167531E-5</c:v>
+                  <c:v>9.2998139389849962E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.4005042244551528E-4</c:v>
+                  <c:v>1.5095379771362381E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1104652931964565E-3</c:v>
+                  <c:v>2.1275221201454819E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.0813148432267168E-3</c:v>
+                  <c:v>2.726529068396271E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2112377496445012E-2</c:v>
+                  <c:v>3.2551972891854505E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.773124312591241E-2</c:v>
+                  <c:v>3.67150392688202E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3464645346038083E-2</c:v>
+                  <c:v>3.9451754148037171E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8867916776961641E-2</c:v>
+                  <c:v>4.0590948765189677E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3550878750361758E-2</c:v>
+                  <c:v>4.0096657667469233E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.7198783111623994E-2</c:v>
+                  <c:v>3.8061678089003598E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.9587298261620434E-2</c:v>
+                  <c:v>3.4692113455081976E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0590948765189677E-2</c:v>
+                  <c:v>3.0284550897914719E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.0184850600494496E-2</c:v>
+                  <c:v>2.5197963087580502E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.8440005473856995E-2</c:v>
+                  <c:v>1.9822692513971223E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.5512802419053822E-2</c:v>
+                  <c:v>1.4548960676357223E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1629701241935822E-2</c:v>
+                  <c:v>9.7372481207458859E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.7068322839243885E-2</c:v>
+                  <c:v>5.6926294328725098E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2136333964460263E-2</c:v>
+                  <c:v>2.6447468746191951E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.7149582489626409E-2</c:v>
+                  <c:v>7.3460289645712825E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2410913535897619E-2</c:v>
+                  <c:v>8.7867186557855719E-6</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.1909827662725171E-3</c:v>
+                  <c:v>4.2116765766966944E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.7121916554196544E-3</c:v>
+                  <c:v>1.84153133862457E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.1366160489320711E-3</c:v>
+                  <c:v>4.0701440519090226E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.5850241986328032E-4</c:v>
+                  <c:v>6.8568384281855145E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5865070050081627E-6</c:v>
+                  <c:v>9.9229447843024194E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.2116765766968121E-4</c:v>
+                  <c:v>1.2984261269494255E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7105696240448328E-3</c:v>
+                  <c:v>1.5773265883308008E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.7113531918313535E-3</c:v>
+                  <c:v>1.805891751071868E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.2264331717871583E-3</c:v>
+                  <c:v>1.9662654638028621E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.0351033297697454E-3</c:v>
+                  <c:v>2.0469554654328117E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1908894619553015E-2</c:v>
+                  <c:v>2.0434033007711936E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.4627186680104555E-2</c:v>
+                  <c:v>1.9579906003550918E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.6991557292206694E-2</c:v>
+                  <c:v>1.7995079029786466E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -433,7 +475,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="00B050" mc:Ignorable=""/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -680,6 +722,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -712,267 +755,284 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>0.97772015949038271</c:v>
+                  <c:v>0.98236420621671594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91315415459122984</c:v>
+                  <c:v>0.93088342101245092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81282196940627038</c:v>
+                  <c:v>0.84968482718978888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68665343757706221</c:v>
+                  <c:v>0.74517747341515783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54672419174152764</c:v>
+                  <c:v>0.62540272627974214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40575056011597588</c:v>
+                  <c:v>0.49923261899593141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27555647126671684</c:v>
+                  <c:v>0.37550626394213027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1657249810377964</c:v>
+                  <c:v>0.2622005329440758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2613856160492188E-2</c:v>
+                  <c:v>0.16572498103779659</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8855241161726358E-2</c:v>
+                  <c:v>9.0414100122535923E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3837544403557359E-3</c:v>
+                  <c:v>3.8264748700940848E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9577343670771864E-3</c:v>
+                  <c:v>8.9363425408524131E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8067410560229216E-2</c:v>
+                  <c:v>5.7170661152329384E-9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4072344759943538E-2</c:v>
+                  <c:v>7.3943169726073191E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.2385884568489281E-2</c:v>
+                  <c:v>2.6023019170821903E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6529299332443697E-2</c:v>
+                  <c:v>5.0416655075784265E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11191051351503922</c:v>
+                  <c:v>7.537689377508916E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11623535499542821</c:v>
+                  <c:v>9.6529299332443724E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10952333757597014</c:v>
+                  <c:v>0.1107261308393519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.3764192235468086E-2</c:v>
+                  <c:v>0.11626301953275996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.2305197831693951E-2</c:v>
+                  <c:v>0.11289887838273299</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9094672196191146E-2</c:v>
+                  <c:v>0.10169371076024884</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.7919154683383105E-2</c:v>
+                  <c:v>8.4700830871739685E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1760380607675494E-2</c:v>
+                  <c:v>6.456573722497945E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3666674996206758E-3</c:v>
+                  <c:v>4.4091782669827585E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.8536740244231059E-5</c:v>
+                  <c:v>2.5832283064653822E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.9788598782752342E-3</c:v>
+                  <c:v>1.1760380607675392E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2112377496444978E-2</c:v>
+                  <c:v>3.0534289526050716E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2045622278371202E-2</c:v>
+                  <c:v>1.0250120341339409E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1321082709296198E-2</c:v>
+                  <c:v>2.100074553655826E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7920607317466555E-2</c:v>
+                  <c:v>8.1240551165423815E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.059094876518967E-2</c:v>
+                  <c:v>1.645629714146379E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8994501875192364E-2</c:v>
+                  <c:v>2.5323030895978555E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.367434667030441E-2</c:v>
+                  <c:v>3.3076644353719577E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5857704773909085E-2</c:v>
+                  <c:v>3.8425620967440878E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7149582489626409E-2</c:v>
+                  <c:v>4.0590948765189677E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.1842176515093982E-3</c:v>
+                  <c:v>3.9372571710639757E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.3039666144880154E-3</c:v>
+                  <c:v>3.5123841539243375E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.2414778445554257E-4</c:v>
+                  <c:v>2.8645532886022181E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.2116765766964592E-4</c:v>
+                  <c:v>2.102189179579244E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1547194166082829E-3</c:v>
+                  <c:v>1.3427995992551267E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.608353588793952E-3</c:v>
+                  <c:v>6.9396994985670476E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2611278629775921E-2</c:v>
+                  <c:v>2.3746497552408026E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6991557292206725E-2</c:v>
+                  <c:v>1.8603869410807817E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9808706800922986E-2</c:v>
+                  <c:v>4.2116765766966944E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0521742098115095E-2</c:v>
+                  <c:v>2.7461850620743656E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.906465106676427E-2</c:v>
+                  <c:v>6.52817917367245E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.5821520710631941E-2</c:v>
+                  <c:v>1.0957673531511445E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1513824221802502E-2</c:v>
+                  <c:v>1.5189576471331413E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.0287792337954845E-3</c:v>
+                  <c:v>1.8479334237034687E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.2272607214834568E-3</c:v>
+                  <c:v>2.0293390562661408E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.710821587461759E-4</c:v>
+                  <c:v>2.0378471767285848E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.8317803512479152E-6</c:v>
+                  <c:v>1.8781670791801475E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.986946760961204E-4</c:v>
+                  <c:v>1.5821520710631875E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0987234198208802E-3</c:v>
+                  <c:v>1.201791102224666E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>7.9946543799621541E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.3719348209800045E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6663785551008286E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.14177610699528E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2809240732181525E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2931179278235754E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.3991535349825555E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>6.0032089530543042E-3</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.9112799181310497E-3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.1170910833469433E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.2309190188480578E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.2117651419015926E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.0678131747330861E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.327574312692685E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.5726868575502898E-3</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.97492132607913E-3</c:v>
+                  <c:v>8.6093917645221011E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.0310822294064821E-3</c:v>
+                  <c:v>1.0752750537602229E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.429370284726978E-5</c:v>
+                  <c:v>1.2073221453618879E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.1447618377151874E-4</c:v>
+                  <c:v>1.2368290298921062E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3283128433808542E-3</c:v>
+                  <c:v>1.1617041453287768E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.097984662929181E-3</c:v>
+                  <c:v>9.9732824082638151E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.0879837294228198E-3</c:v>
+                  <c:v>7.7305531091898128E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.8420715604625851E-3</c:v>
+                  <c:v>5.2662275554834327E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.9792688697164563E-3</c:v>
+                  <c:v>2.9749213260791482E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.2690840546160039E-3</c:v>
+                  <c:v>1.2026201008363045E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.671507438544293E-3</c:v>
+                  <c:v>1.9223791572510899E-4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.3353223338019488E-3</c:v>
+                  <c:v>4.8908567771986598E-5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.5572285961443968E-3</c:v>
+                  <c:v>7.2968141756661695E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.7122549517811108E-3</c:v>
+                  <c:v>2.0580811370394607E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="84217216"/>
-        <c:axId val="84243584"/>
+        <c:smooth val="0"/>
+        <c:axId val="75315840"/>
+        <c:axId val="75319936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84217216"/>
+        <c:axId val="75315840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84243584"/>
+        <c:crossAx val="75319936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84243584"/>
+        <c:axId val="75319936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84217216"/>
+        <c:crossAx val="75315840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -980,8 +1040,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -993,12 +1056,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1016,7 +1091,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable=""/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1030,239 +1105,240 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>7.3177815019080938E-3</c:v>
+                  <c:v>8.4829823657466275E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9023418391011191E-2</c:v>
+                  <c:v>3.3599784267021482E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4390631366598283E-2</c:v>
+                  <c:v>7.4376662652666403E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11224240004974495</c:v>
+                  <c:v>0.12924324786516639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17100160782169394</c:v>
+                  <c:v>0.19611043032077946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23875766483063698</c:v>
+                  <c:v>0.2724724354516862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31334656242293757</c:v>
+                  <c:v>0.35552808096951805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39244055796799948</c:v>
+                  <c:v>0.44231456036820116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47364326362363418</c:v>
+                  <c:v>0.52984647503361249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55458570249884853</c:v>
+                  <c:v>0.61525264420548331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63301890995023957</c:v>
+                  <c:v>0.69590346470796272</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70689889344964496</c:v>
+                  <c:v>0.76952225131918783</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7744602069027311</c:v>
+                  <c:v>0.83427501896220346</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83427501896220346</c:v>
+                  <c:v>0.88883450230822414</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88529532490021712</c:v>
+                  <c:v>0.93241576177454222</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92687682576595776</c:v>
+                  <c:v>0.9647823998903079</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.958783929672272</c:v>
+                  <c:v>0.9862241052513977</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.98117626861120077</c:v>
+                  <c:v>0.99750785010245624</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99457802107247328</c:v>
+                  <c:v>0.99980649642000441</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9998321398864245</c:v>
+                  <c:v>0.99460973174354639</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99804226563292275</c:v>
+                  <c:v>0.98362309549444116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99050562582072499</c:v>
+                  <c:v>0.96866132652900083</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97864055535364691</c:v>
+                  <c:v>0.95154234467015253</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.96391241152245388</c:v>
+                  <c:v>0.93398787918191917</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.94776159482603894</c:v>
+                  <c:v>0.9175361056291913</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.93153713412610673</c:v>
+                  <c:v>0.9034707006675563</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91643886991738077</c:v>
+                  <c:v>0.89276954091799865</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9034707006675563</c:v>
+                  <c:v>0.88607493873007148</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.89340667919608696</c:v>
+                  <c:v>0.88368591291790499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.88677099888660571</c:v>
+                  <c:v>0.88557162620600838</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.88383213580338793</c:v>
+                  <c:v>0.89140386818743034</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.88461065536929173</c:v>
+                  <c:v>0.90060539802932704</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.88889949184023598</c:v>
+                  <c:v>0.91241014524402753</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.89629490165194103</c:v>
+                  <c:v>0.92593074170005163</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.90623580776453216</c:v>
+                  <c:v>0.94022864544746099</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91804891349865159</c:v>
+                  <c:v>0.95438221751481755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.93099678429058541</c:v>
+                  <c:v>0.96754850676006354</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.94432607819031422</c:v>
+                  <c:v>0.97901514680202162</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95731324539214135</c:v>
+                  <c:v>0.98823961939232452</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.96930529953356015</c:v>
+                  <c:v>0.99487412547416099</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.9797536672192535</c:v>
+                  <c:v>0.99877535730201417</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.98823961939232452</c:v>
+                  <c:v>0.99999950958913764</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9944903466289049</c:v>
+                  <c:v>0.99878383541454629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.9983853256969083</c:v>
+                  <c:v>0.99551688229821822</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99995320206979588</c:v>
+                  <c:v>0.99070018606101495</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99935994957755447</c:v>
+                  <c:v>0.98490462022863767</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99688953470680353</c:v>
+                  <c:v>0.97872477879854514</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99291868515677328</c:v>
+                  <c:v>0.97273470931603734</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.987887622503555</c:v>
+                  <c:v>0.96744802710814548</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.98226875687408755</c:v>
+                  <c:v>0.96328496073117975</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.97653535465396191</c:v>
+                  <c:v>0.96054824585196286</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.97113208322303834</c:v>
+                  <c:v>0.95940905123481035</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.96644912124963822</c:v>
+                  <c:v>0.95990334233253072</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.96280121688837605</c:v>
+                  <c:v>0.96193832191099637</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.96041270173837956</c:v>
+                  <c:v>0.96530788654491806</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.95940905123481035</c:v>
+                  <c:v>0.96971544910208529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.95981514939950552</c:v>
+                  <c:v>0.97480203691241951</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.96155999452614305</c:v>
+                  <c:v>0.98017730748602883</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.96448719758094614</c:v>
+                  <c:v>0.98545103932364275</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.96837029875806413</c:v>
+                  <c:v>0.99026275187925417</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.97293167716075613</c:v>
+                  <c:v>0.99430737056712748</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.97786366603553976</c:v>
+                  <c:v>0.99735525312538076</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.98285041751037361</c:v>
+                  <c:v>0.9992653971035429</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.98758908646410237</c:v>
+                  <c:v>0.99999121328134422</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.9918090172337275</c:v>
+                  <c:v>0.99957883234233036</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.9952878083445803</c:v>
+                  <c:v>0.99815846866137548</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99786338395106788</c:v>
+                  <c:v>0.99592985594809103</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99944149758013667</c:v>
+                  <c:v>0.99314316157181448</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99999841349299501</c:v>
+                  <c:v>0.99007705521569755</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99957883234233036</c:v>
+                  <c:v>0.98701573873050574</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99828943037595519</c:v>
+                  <c:v>0.98422673411669204</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99628864680816864</c:v>
+                  <c:v>0.98194108248928136</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99377356682821283</c:v>
+                  <c:v>0.98033734536197137</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99096489667023024</c:v>
+                  <c:v>0.97953044534567191</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.98809110538044698</c:v>
+                  <c:v>0.97956596699228804</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.98537281331989546</c:v>
+                  <c:v>0.98042009399644914</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.98300844270779331</c:v>
+                  <c:v>0.98200492097021352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1281,7 +1357,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="00B050" mc:Ignorable=""/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1528,6 +1604,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1546,7 +1623,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0070C0" mc:Ignorable=""/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1560,267 +1637,284 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>2.2279840509617288E-2</c:v>
+                  <c:v>1.7635793783284059E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6845845408770161E-2</c:v>
+                  <c:v>6.9116578987549082E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18717803059372962</c:v>
+                  <c:v>0.15031517281021112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31334656242293779</c:v>
+                  <c:v>0.25482252658484217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45327580825847236</c:v>
+                  <c:v>0.37459727372025786</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59424943988402412</c:v>
+                  <c:v>0.50076738100406859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7244435287332831</c:v>
+                  <c:v>0.62449373605786973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83427501896220357</c:v>
+                  <c:v>0.73779946705592425</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91738614383950778</c:v>
+                  <c:v>0.83427501896220346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97114475883827367</c:v>
+                  <c:v>0.90958589987746408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99661624555964423</c:v>
+                  <c:v>0.96173525129905912</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99804226563292286</c:v>
+                  <c:v>0.9910636574591476</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9819325894397708</c:v>
+                  <c:v>0.99999999428293385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95592765524005641</c:v>
+                  <c:v>0.99260568302739272</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92761411543151073</c:v>
+                  <c:v>0.97397698082917805</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.9495833449242157</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92462310622491084</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.9034707006675563</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88808948648496078</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88376464500457175</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8904766624240299</c:v>
+                  <c:v>0.8892738691606481</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90623580776453194</c:v>
+                  <c:v>0.88373698046724003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92769480216830602</c:v>
+                  <c:v>0.88710112161726706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.95090532780380888</c:v>
+                  <c:v>0.8983062892397512</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97208084531661687</c:v>
+                  <c:v>0.91529916912826037</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98823961939232452</c:v>
+                  <c:v>0.93543426277502051</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99763333250037933</c:v>
+                  <c:v>0.95590821733017239</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99991146325975577</c:v>
+                  <c:v>0.97416771693534621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99602114012172471</c:v>
+                  <c:v>0.98823961939232463</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.987887622503555</c:v>
+                  <c:v>0.99694657104739492</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97795437772162885</c:v>
+                  <c:v>0.99998974987965861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.96867891729070377</c:v>
+                  <c:v>0.9978999254463442</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9620793926825334</c:v>
+                  <c:v>0.99187594488345765</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0.98354370285853621</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97467696910402146</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9669233556462804</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96157437903255916</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.95940905123481035</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.96100549812480762</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.96632565332969556</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.97414229522609097</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.98285041751037361</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99081578234849055</c:v>
+                  <c:v>0.96062742828936021</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99669603338551194</c:v>
+                  <c:v>0.96487615846075658</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99967585221554445</c:v>
+                  <c:v>0.97135446711397777</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0.97897810820420761</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98657200400744871</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9930603005014329</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99762535024475918</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99981396130589195</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0.99957883234233036</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.99684528058339172</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.99239164641120603</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.98738872137022404</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.98300844270779331</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.98019129319907705</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.97947825790188492</c:v>
+                  <c:v>0.99725381493792564</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.98093534893323575</c:v>
+                  <c:v>0.99347182082632757</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>0.98904232646848855</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98481042352866854</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98152066576296526</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.97970660943733856</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9796215282327142</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98121832920819851</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>0.98417847928936808</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.98848617577819753</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.99297122076620448</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.99677273927851651</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.99922891784125378</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.99999716821964879</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.99910130532390384</c:v>
-                </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99690127658017913</c:v>
+                  <c:v>0.9879820889777533</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>0.99200534562003784</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99562806517902003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99833362144489912</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99978582238930047</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99987190759267819</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99870688207217639</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99660084646501745</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0.99399679104694572</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.99108872008186899</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.98882908916653056</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.98769080981151947</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.98788234858098412</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.9893218682526691</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.99167242568730729</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.9944273131424497</c:v>
-                </c:pt>
                 <c:pt idx="63">
+                  <c:v>0.99139060823547787</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.98924724946239773</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.98792677854638111</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98763170970107894</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98838295854671221</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99002671759173622</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.9922694468908102</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99473377244451655</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>0.99702507867392087</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.99896891777059349</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.99992570629715272</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.99978552381622843</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.99867168715661914</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.99690201533707079</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.99491201627057713</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.99315792843953743</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.99202073113028355</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99173091594538398</c:v>
+                  <c:v>0.99879737989916373</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99232849256145572</c:v>
+                  <c:v>0.99980776208427491</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99366467766619804</c:v>
+                  <c:v>0.99995109143222805</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99544277140385562</c:v>
+                  <c:v>0.99927031858243343</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99728774504821893</c:v>
+                  <c:v>0.99794191886296058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="89251200"/>
-        <c:axId val="95720576"/>
+        <c:smooth val="0"/>
+        <c:axId val="78735232"/>
+        <c:axId val="78736768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89251200"/>
+        <c:axId val="78735232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95720576"/>
+        <c:crossAx val="78736768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95720576"/>
+        <c:axId val="78736768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89251200"/>
+        <c:crossAx val="78735232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1828,8 +1922,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1839,25 +1936,966 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>Transmission of Spectrum</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>650nm(R)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C00000" mc:Ignorable=""/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0.00_ ">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_ ">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00_ ">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00_ ">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00_ ">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00_ ">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.4829823657466275E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3599784267021482E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4376662652666403E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12924324786516639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19611043032077946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2724724354516862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35552808096951805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44231456036820116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52984647503361249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61525264420548331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69590346470796272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76952225131918783</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83427501896220346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88883450230822414</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93241576177454222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>550nm(G)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="00B050" mc:Ignorable=""/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0.00_ ">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_ ">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00_ ">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00_ ">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00_ ">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00_ ">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.1832566948911216E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6686259931603691E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10267970013654015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17682043591988061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26521017411874404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36330870999609355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46623694885363609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56909600725437182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66727850090967333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75674918729620955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83427501896220357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89758910821068638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94547870585540772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97779356378727877</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99537744285477847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>450nm(B)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0.00_ ">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_ ">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00_ ">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00_ ">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00_ ">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00_ ">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.7635793783284059E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9116578987549082E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15031517281021112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25482252658484217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37459727372025786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50076738100406859</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62449373605786973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73779946705592425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83427501896220346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90958589987746408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96173525129905912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9910636574591476</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99999999428293385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99260568302739272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97397698082917805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="73463296"/>
+        <c:axId val="74626560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73463296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US">
+                    <a:latin typeface="新細明體"/>
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>Δn</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74626560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74626560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Transmission</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73463296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>Ratio of Spectrum</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C00000" mc:Ignorable=""/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0.00_ ">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_ ">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00_ ">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00_ ">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00_ ">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00_ ">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.176629208930139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17854464569885029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18176691343174334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18632245836344269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19224732273493997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19957745429317411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20833838361103138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21853103155373349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23011292999309826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24297509194919431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25691639107171144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27161985485181345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28663843053702803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30140034423173828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31524390552851578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0070C0" mc:Ignorable=""/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0.00_ ">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_ ">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00_ ">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00_ ">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00_ ">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00_ ">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.53776825712509368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5342534256312238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52838079331061638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52015550099160934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5095920541815645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49673291331328073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48166921834632404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46456712180137943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44569917848916135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4254779486948595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40448562447012798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3834892059376242</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36342682790095365</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34535005579861966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33031316030610297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80359424"/>
+        <c:axId val="80388096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80359424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="en-US"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80388096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80388096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80359424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1873,21 +2911,92 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="圖表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1905,7 +3014,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1915,34 +3024,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1979,6 +3088,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2013,6 +3123,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2094,7 +3205,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2103,7 +3214,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2112,7 +3223,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2188,19 +3299,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2436,633 +3547,633 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="2" spans="1:78">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <f>POWER(SIN(0.5*3.14*SQRT(1+POWER(B3/3.14,2))),2)/(1+POWER(B3/3.14,2))</f>
-        <v>0.99268221849809191</v>
+        <v>0.99151701763425337</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:BN2" si="0">POWER(SIN(0.5*3.14*SQRT(1+POWER(C3/3.14,2))),2)/(1+POWER(C3/3.14,2))</f>
-        <v>0.97097658160898881</v>
+        <v>0.96640021573297852</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" si="0"/>
-        <v>0.93560936863340172</v>
+        <v>0.9256233373473336</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" si="0"/>
-        <v>0.88775759995025505</v>
+        <v>0.87075675213483361</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>0.82899839217830606</v>
+        <v>0.80388956967922054</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>0.76124233516936302</v>
+        <v>0.7275275645483138</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>0.68665343757706243</v>
+        <v>0.64447191903048195</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>0.60755944203200052</v>
+        <v>0.55768543963179884</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>0.52635673637636582</v>
+        <v>0.47015352496638757</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>0.44541429750115147</v>
+        <v>0.38474735579451663</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>0.36698109004976043</v>
+        <v>0.30409653529203723</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" si="0"/>
-        <v>0.29310110655035504</v>
+        <v>0.23047774868081217</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>0.22553979309726896</v>
+        <v>0.16572498103779659</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.16572498103779659</v>
+        <v>0.11116549769177589</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0.11470467509978283</v>
+        <v>6.758423822545781E-2</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>7.3123174234042201E-2</v>
+        <v>3.5217600109692104E-2</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" si="0"/>
-        <v>4.121607032772797E-2</v>
+        <v>1.3775894748602252E-2</v>
       </c>
       <c r="S2" s="1">
         <f t="shared" si="0"/>
-        <v>1.882373138879926E-2</v>
+        <v>2.4921498975437203E-3</v>
       </c>
       <c r="T2" s="1">
         <f t="shared" si="0"/>
-        <v>5.4219789275267655E-3</v>
+        <v>1.9350357999556067E-4</v>
       </c>
       <c r="U2" s="1">
         <f t="shared" si="0"/>
-        <v>1.6786011357550985E-4</v>
+        <v>5.3902682564535903E-3</v>
       </c>
       <c r="V2" s="1">
         <f t="shared" si="0"/>
-        <v>1.9577343670772233E-3</v>
+        <v>1.6376904505558877E-2</v>
       </c>
       <c r="W2" s="1">
         <f t="shared" si="0"/>
-        <v>9.4943741792750131E-3</v>
+        <v>3.1338673470999154E-2</v>
       </c>
       <c r="X2" s="1">
         <f t="shared" si="0"/>
-        <v>2.1359444646353094E-2</v>
+        <v>4.8457655329847527E-2</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" si="0"/>
-        <v>3.6087588477546083E-2</v>
+        <v>6.6012120818080791E-2</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" si="0"/>
-        <v>5.2238405173961111E-2</v>
+        <v>8.2463894370808741E-2</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" si="0"/>
-        <v>6.8462865873893261E-2</v>
+        <v>9.6529299332443724E-2</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" si="0"/>
-        <v>8.3561130082619256E-2</v>
+        <v>0.10723045908200139</v>
       </c>
       <c r="AC2" s="1">
         <f t="shared" si="0"/>
-        <v>9.6529299332443724E-2</v>
+        <v>0.11392506126992853</v>
       </c>
       <c r="AD2" s="1">
         <f t="shared" si="0"/>
-        <v>0.10659332080391305</v>
+        <v>0.11631408708209505</v>
       </c>
       <c r="AE2" s="1">
         <f t="shared" si="0"/>
-        <v>0.11322900111339426</v>
+        <v>0.11442837379399166</v>
       </c>
       <c r="AF2" s="1">
         <f t="shared" si="0"/>
-        <v>0.11616786419661204</v>
+        <v>0.10859613181256962</v>
       </c>
       <c r="AG2" s="1">
         <f t="shared" si="0"/>
-        <v>0.11538934463070824</v>
+        <v>9.9394601970672986E-2</v>
       </c>
       <c r="AH2" s="1">
         <f t="shared" si="0"/>
-        <v>0.11110050815976404</v>
+        <v>8.7589854755972488E-2</v>
       </c>
       <c r="AI2" s="1">
         <f t="shared" si="0"/>
-        <v>0.10370509834805895</v>
+        <v>7.4069258299948371E-2</v>
       </c>
       <c r="AJ2" s="1">
         <f t="shared" si="0"/>
-        <v>9.3764192235467864E-2</v>
+        <v>5.9771354552538999E-2</v>
       </c>
       <c r="AK2" s="1">
         <f t="shared" si="0"/>
-        <v>8.1951086501348414E-2</v>
+        <v>4.5617782485182438E-2</v>
       </c>
       <c r="AL2" s="1">
         <f t="shared" si="0"/>
-        <v>6.9003215709414617E-2</v>
+        <v>3.2451493239936492E-2</v>
       </c>
       <c r="AM2" s="1">
         <f t="shared" si="0"/>
-        <v>5.5673921809685792E-2</v>
+        <v>2.0984853197978364E-2</v>
       </c>
       <c r="AN2" s="1">
         <f t="shared" si="0"/>
-        <v>4.268675460785866E-2</v>
+        <v>1.1760380607675439E-2</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" si="0"/>
-        <v>3.0694700466439809E-2</v>
+        <v>5.1258745258390345E-3</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" si="0"/>
-        <v>2.0246332780746459E-2</v>
+        <v>1.2246426979858249E-3</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" si="0"/>
-        <v>1.1760380607675439E-2</v>
+        <v>4.9041086237431022E-7</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" si="0"/>
-        <v>5.5096533710950911E-3</v>
+        <v>1.2161645854536745E-3</v>
       </c>
       <c r="AS2" s="1">
         <f t="shared" si="0"/>
-        <v>1.6146743030916576E-3</v>
+        <v>4.4831177017817785E-3</v>
       </c>
       <c r="AT2" s="1">
         <f t="shared" si="0"/>
-        <v>4.6797930204167531E-5</v>
+        <v>9.2998139389849962E-3</v>
       </c>
       <c r="AU2" s="1">
         <f t="shared" si="0"/>
-        <v>6.4005042244551528E-4</v>
+        <v>1.5095379771362381E-2</v>
       </c>
       <c r="AV2" s="1">
         <f t="shared" si="0"/>
-        <v>3.1104652931964565E-3</v>
+        <v>2.1275221201454819E-2</v>
       </c>
       <c r="AW2" s="1">
         <f t="shared" si="0"/>
-        <v>7.0813148432267168E-3</v>
+        <v>2.726529068396271E-2</v>
       </c>
       <c r="AX2" s="1">
         <f t="shared" si="0"/>
-        <v>1.2112377496445012E-2</v>
+        <v>3.2551972891854505E-2</v>
       </c>
       <c r="AY2" s="1">
         <f t="shared" si="0"/>
-        <v>1.773124312591241E-2</v>
+        <v>3.67150392688202E-2</v>
       </c>
       <c r="AZ2" s="1">
         <f t="shared" si="0"/>
-        <v>2.3464645346038083E-2</v>
+        <v>3.9451754148037171E-2</v>
       </c>
       <c r="BA2" s="1">
         <f t="shared" si="0"/>
-        <v>2.8867916776961641E-2</v>
+        <v>4.0590948765189677E-2</v>
       </c>
       <c r="BB2" s="1">
         <f t="shared" si="0"/>
-        <v>3.3550878750361758E-2</v>
+        <v>4.0096657667469233E-2</v>
       </c>
       <c r="BC2" s="1">
         <f t="shared" si="0"/>
-        <v>3.7198783111623994E-2</v>
+        <v>3.8061678089003598E-2</v>
       </c>
       <c r="BD2" s="1">
         <f t="shared" si="0"/>
-        <v>3.9587298261620434E-2</v>
+        <v>3.4692113455081976E-2</v>
       </c>
       <c r="BE2" s="1">
         <f t="shared" si="0"/>
-        <v>4.0590948765189677E-2</v>
+        <v>3.0284550897914719E-2</v>
       </c>
       <c r="BF2" s="1">
         <f t="shared" si="0"/>
-        <v>4.0184850600494496E-2</v>
+        <v>2.5197963087580502E-2</v>
       </c>
       <c r="BG2" s="1">
         <f t="shared" si="0"/>
-        <v>3.8440005473856995E-2</v>
+        <v>1.9822692513971223E-2</v>
       </c>
       <c r="BH2" s="1">
         <f t="shared" si="0"/>
-        <v>3.5512802419053822E-2</v>
+        <v>1.4548960676357223E-2</v>
       </c>
       <c r="BI2" s="1">
         <f t="shared" si="0"/>
-        <v>3.1629701241935822E-2</v>
+        <v>9.7372481207458859E-3</v>
       </c>
       <c r="BJ2" s="1">
         <f t="shared" si="0"/>
-        <v>2.7068322839243885E-2</v>
+        <v>5.6926294328725098E-3</v>
       </c>
       <c r="BK2" s="1">
         <f t="shared" si="0"/>
-        <v>2.2136333964460263E-2</v>
+        <v>2.6447468746191951E-3</v>
       </c>
       <c r="BL2" s="1">
         <f t="shared" si="0"/>
-        <v>1.7149582489626409E-2</v>
+        <v>7.3460289645712825E-4</v>
       </c>
       <c r="BM2" s="1">
         <f t="shared" si="0"/>
-        <v>1.2410913535897619E-2</v>
+        <v>8.7867186557855719E-6</v>
       </c>
       <c r="BN2" s="1">
         <f t="shared" si="0"/>
-        <v>8.1909827662725171E-3</v>
+        <v>4.2116765766966944E-4</v>
       </c>
       <c r="BO2" s="1">
         <f t="shared" ref="BO2:BZ2" si="1">POWER(SIN(0.5*3.14*SQRT(1+POWER(BO3/3.14,2))),2)/(1+POWER(BO3/3.14,2))</f>
-        <v>4.7121916554196544E-3</v>
+        <v>1.84153133862457E-3</v>
       </c>
       <c r="BP2" s="1">
         <f t="shared" si="1"/>
-        <v>2.1366160489320711E-3</v>
+        <v>4.0701440519090226E-3</v>
       </c>
       <c r="BQ2" s="1">
         <f t="shared" si="1"/>
-        <v>5.5850241986328032E-4</v>
+        <v>6.8568384281855145E-3</v>
       </c>
       <c r="BR2" s="1">
         <f t="shared" si="1"/>
-        <v>1.5865070050081627E-6</v>
+        <v>9.9229447843024194E-3</v>
       </c>
       <c r="BS2" s="1">
         <f t="shared" si="1"/>
-        <v>4.2116765766968121E-4</v>
+        <v>1.2984261269494255E-2</v>
       </c>
       <c r="BT2" s="1">
         <f t="shared" si="1"/>
-        <v>1.7105696240448328E-3</v>
+        <v>1.5773265883308008E-2</v>
       </c>
       <c r="BU2" s="1">
         <f t="shared" si="1"/>
-        <v>3.7113531918313535E-3</v>
+        <v>1.805891751071868E-2</v>
       </c>
       <c r="BV2" s="1">
         <f t="shared" si="1"/>
-        <v>6.2264331717871583E-3</v>
+        <v>1.9662654638028621E-2</v>
       </c>
       <c r="BW2" s="1">
         <f t="shared" si="1"/>
-        <v>9.0351033297697454E-3</v>
+        <v>2.0469554654328117E-2</v>
       </c>
       <c r="BX2" s="1">
         <f t="shared" si="1"/>
-        <v>1.1908894619553015E-2</v>
+        <v>2.0434033007711936E-2</v>
       </c>
       <c r="BY2" s="1">
         <f t="shared" si="1"/>
-        <v>1.4627186680104555E-2</v>
+        <v>1.9579906003550918E-2</v>
       </c>
       <c r="BZ2" s="1">
         <f t="shared" si="1"/>
-        <v>1.6991557292206694E-2</v>
+        <v>1.7995079029786466E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <f>2*3.14*B1*$B$9/$B$10</f>
-        <v>0.26914285714285724</v>
+        <v>0.28984615384615392</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:BN3" si="2">2*3.14*C1*$B$9/$B$10</f>
-        <v>0.53828571428571448</v>
+        <v>0.57969230769230784</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="2"/>
-        <v>0.80742857142857138</v>
+        <v>0.86953846153846137</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="2"/>
-        <v>1.076571428571429</v>
+        <v>1.1593846153846157</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="2"/>
-        <v>1.3457142857142856</v>
+        <v>1.4492307692307691</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="2"/>
-        <v>1.6148571428571428</v>
+        <v>1.7390769230769227</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="2"/>
-        <v>1.8840000000000001</v>
+        <v>2.0289230769230766</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="2"/>
-        <v>2.1531428571428579</v>
+        <v>2.3187692307692314</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>2.4222857142857146</v>
+        <v>2.6086153846153843</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="2"/>
-        <v>2.6914285714285713</v>
+        <v>2.8984615384615382</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>2.9605714285714293</v>
+        <v>3.188307692307693</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="2"/>
-        <v>3.2297142857142855</v>
+        <v>3.4781538461538455</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="2"/>
-        <v>3.4988571428571436</v>
+        <v>3.7680000000000002</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="2"/>
-        <v>3.7680000000000002</v>
+        <v>4.0578461538461532</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="2"/>
-        <v>4.0371428571428574</v>
+        <v>4.3476923076923075</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="2"/>
-        <v>4.3062857142857158</v>
+        <v>4.6375384615384627</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="2"/>
-        <v>4.5754285714285716</v>
+        <v>4.9273846153846153</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="2"/>
-        <v>4.8445714285714292</v>
+        <v>5.2172307692307687</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="2"/>
-        <v>5.1137142857142859</v>
+        <v>5.507076923076923</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="2"/>
-        <v>5.3828571428571426</v>
+        <v>5.7969230769230764</v>
       </c>
       <c r="V3" s="1">
         <f t="shared" si="2"/>
-        <v>5.6520000000000001</v>
+        <v>6.0867692307692307</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" si="2"/>
-        <v>5.9211428571428586</v>
+        <v>6.3766153846153859</v>
       </c>
       <c r="X3" s="1">
         <f t="shared" si="2"/>
-        <v>6.1902857142857144</v>
+        <v>6.6664615384615376</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="2"/>
-        <v>6.4594285714285711</v>
+        <v>6.956307692307691</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="2"/>
-        <v>6.7285714285714286</v>
+        <v>7.2461538461538462</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="2"/>
-        <v>6.9977142857142871</v>
+        <v>7.5360000000000005</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="2"/>
-        <v>7.2668571428571447</v>
+        <v>7.8258461538461557</v>
       </c>
       <c r="AC3" s="1">
         <f t="shared" si="2"/>
-        <v>7.5360000000000005</v>
+        <v>8.1156923076923064</v>
       </c>
       <c r="AD3" s="1">
         <f t="shared" si="2"/>
-        <v>7.8051428571428572</v>
+        <v>8.4055384615384607</v>
       </c>
       <c r="AE3" s="1">
         <f t="shared" si="2"/>
-        <v>8.0742857142857147</v>
+        <v>8.695384615384615</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="2"/>
-        <v>8.3434285714285714</v>
+        <v>8.9852307692307694</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="2"/>
-        <v>8.6125714285714317</v>
+        <v>9.2750769230769254</v>
       </c>
       <c r="AH3" s="1">
         <f t="shared" si="2"/>
-        <v>8.8817142857142866</v>
+        <v>9.5649230769230762</v>
       </c>
       <c r="AI3" s="1">
         <f t="shared" si="2"/>
-        <v>9.1508571428571432</v>
+        <v>9.8547692307692305</v>
       </c>
       <c r="AJ3" s="1">
         <f t="shared" si="2"/>
-        <v>9.4200000000000017</v>
+        <v>10.144615384615385</v>
       </c>
       <c r="AK3" s="1">
         <f t="shared" si="2"/>
-        <v>9.6891428571428584</v>
+        <v>10.434461538461537</v>
       </c>
       <c r="AL3" s="1">
         <f t="shared" si="2"/>
-        <v>9.9582857142857151</v>
+        <v>10.724307692307692</v>
       </c>
       <c r="AM3" s="1">
         <f t="shared" si="2"/>
-        <v>10.227428571428572</v>
+        <v>11.014153846153846</v>
       </c>
       <c r="AN3" s="1">
         <f t="shared" si="2"/>
-        <v>10.496571428571428</v>
+        <v>11.304</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="2"/>
-        <v>10.765714285714285</v>
+        <v>11.593846153846153</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="2"/>
-        <v>11.034857142857142</v>
+        <v>11.883692307692305</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="2"/>
-        <v>11.304</v>
+        <v>12.173538461538461</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="2"/>
-        <v>11.573142857142859</v>
+        <v>12.463384615384616</v>
       </c>
       <c r="AS3" s="1">
         <f t="shared" si="2"/>
-        <v>11.842285714285717</v>
+        <v>12.753230769230772</v>
       </c>
       <c r="AT3" s="1">
         <f t="shared" si="2"/>
-        <v>12.111428571428572</v>
+        <v>13.043076923076923</v>
       </c>
       <c r="AU3" s="1">
         <f t="shared" si="2"/>
-        <v>12.380571428571429</v>
+        <v>13.332923076923075</v>
       </c>
       <c r="AV3" s="1">
         <f t="shared" si="2"/>
-        <v>12.649714285714287</v>
+        <v>13.622769230769231</v>
       </c>
       <c r="AW3" s="1">
         <f t="shared" si="2"/>
-        <v>12.918857142857142</v>
+        <v>13.912615384615382</v>
       </c>
       <c r="AX3" s="1">
         <f t="shared" si="2"/>
-        <v>13.188000000000001</v>
+        <v>14.202461538461538</v>
       </c>
       <c r="AY3" s="1">
         <f t="shared" si="2"/>
-        <v>13.457142857142857</v>
+        <v>14.492307692307692</v>
       </c>
       <c r="AZ3" s="1">
         <f t="shared" si="2"/>
-        <v>13.726285714285714</v>
+        <v>14.782153846153845</v>
       </c>
       <c r="BA3" s="1">
         <f t="shared" si="2"/>
-        <v>13.995428571428574</v>
+        <v>15.072000000000001</v>
       </c>
       <c r="BB3" s="1">
         <f t="shared" si="2"/>
-        <v>14.264571428571427</v>
+        <v>15.361846153846152</v>
       </c>
       <c r="BC3" s="1">
         <f t="shared" si="2"/>
-        <v>14.533714285714289</v>
+        <v>15.651692307692311</v>
       </c>
       <c r="BD3" s="1">
         <f t="shared" si="2"/>
-        <v>14.802857142857144</v>
+        <v>15.94153846153846</v>
       </c>
       <c r="BE3" s="1">
         <f t="shared" si="2"/>
-        <v>15.072000000000001</v>
+        <v>16.231384615384613</v>
       </c>
       <c r="BF3" s="1">
         <f t="shared" si="2"/>
-        <v>15.341142857142858</v>
+        <v>16.521230769230769</v>
       </c>
       <c r="BG3" s="1">
         <f t="shared" si="2"/>
-        <v>15.610285714285714</v>
+        <v>16.811076923076921</v>
       </c>
       <c r="BH3" s="1">
         <f t="shared" si="2"/>
-        <v>15.879428571428576</v>
+        <v>17.100923076923081</v>
       </c>
       <c r="BI3" s="1">
         <f t="shared" si="2"/>
-        <v>16.148571428571429</v>
+        <v>17.39076923076923</v>
       </c>
       <c r="BJ3" s="1">
         <f t="shared" si="2"/>
-        <v>16.417714285714286</v>
+        <v>17.680615384615383</v>
       </c>
       <c r="BK3" s="1">
         <f t="shared" si="2"/>
-        <v>16.686857142857143</v>
+        <v>17.970461538461539</v>
       </c>
       <c r="BL3" s="1">
         <f t="shared" si="2"/>
-        <v>16.956</v>
+        <v>18.260307692307691</v>
       </c>
       <c r="BM3" s="1">
         <f t="shared" si="2"/>
-        <v>17.225142857142863</v>
+        <v>18.550153846153851</v>
       </c>
       <c r="BN3" s="1">
         <f t="shared" si="2"/>
-        <v>17.494285714285716</v>
+        <v>18.84</v>
       </c>
       <c r="BO3" s="1">
         <f t="shared" ref="BO3:BZ3" si="3">2*3.14*BO1*$B$9/$B$10</f>
-        <v>17.763428571428573</v>
+        <v>19.129846153846152</v>
       </c>
       <c r="BP3" s="1">
         <f t="shared" si="3"/>
-        <v>18.03257142857143</v>
+        <v>19.419692307692308</v>
       </c>
       <c r="BQ3" s="1">
         <f t="shared" si="3"/>
-        <v>18.301714285714286</v>
+        <v>19.709538461538461</v>
       </c>
       <c r="BR3" s="1">
         <f t="shared" si="3"/>
-        <v>18.570857142857143</v>
+        <v>19.999384615384614</v>
       </c>
       <c r="BS3" s="1">
         <f t="shared" si="3"/>
-        <v>18.840000000000003</v>
+        <v>20.28923076923077</v>
       </c>
       <c r="BT3" s="1">
         <f t="shared" si="3"/>
-        <v>19.10914285714286</v>
+        <v>20.579076923076922</v>
       </c>
       <c r="BU3" s="1">
         <f t="shared" si="3"/>
-        <v>19.378285714285717</v>
+        <v>20.868923076923075</v>
       </c>
       <c r="BV3" s="1">
         <f t="shared" si="3"/>
-        <v>19.647428571428573</v>
+        <v>21.158769230769231</v>
       </c>
       <c r="BW3" s="1">
         <f t="shared" si="3"/>
-        <v>19.91657142857143</v>
+        <v>21.448615384615383</v>
       </c>
       <c r="BX3" s="1">
         <f t="shared" si="3"/>
-        <v>20.185714285714287</v>
+        <v>21.738461538461539</v>
       </c>
       <c r="BY3" s="1">
         <f t="shared" si="3"/>
-        <v>20.454857142857144</v>
+        <v>22.028307692307692</v>
       </c>
       <c r="BZ3" s="1">
         <f t="shared" si="3"/>
-        <v>20.724</v>
+        <v>22.318153846153844</v>
       </c>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3375,7 +4486,7 @@
         <v>6.0032089530543042E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:78">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3688,633 +4799,633 @@
         <v>26.375999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:78">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <f>POWER(SIN(0.5*3.14*SQRT(1+POWER(B7/3.14,2))),2)/(1+POWER(B7/3.14,2))</f>
-        <v>0.97772015949038271</v>
+        <v>0.98236420621671594</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:BN6" si="8">POWER(SIN(0.5*3.14*SQRT(1+POWER(C7/3.14,2))),2)/(1+POWER(C7/3.14,2))</f>
-        <v>0.91315415459122984</v>
+        <v>0.93088342101245092</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="8"/>
-        <v>0.81282196940627038</v>
+        <v>0.84968482718978888</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="8"/>
-        <v>0.68665343757706221</v>
+        <v>0.74517747341515783</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="8"/>
-        <v>0.54672419174152764</v>
+        <v>0.62540272627974214</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="8"/>
-        <v>0.40575056011597588</v>
+        <v>0.49923261899593141</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="8"/>
-        <v>0.27555647126671684</v>
+        <v>0.37550626394213027</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="8"/>
-        <v>0.1657249810377964</v>
+        <v>0.2622005329440758</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="8"/>
-        <v>8.2613856160492188E-2</v>
+        <v>0.16572498103779659</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="8"/>
-        <v>2.8855241161726358E-2</v>
+        <v>9.0414100122535923E-2</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="8"/>
-        <v>3.3837544403557359E-3</v>
+        <v>3.8264748700940848E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="8"/>
-        <v>1.9577343670771864E-3</v>
+        <v>8.9363425408524131E-3</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="8"/>
-        <v>1.8067410560229216E-2</v>
+        <v>5.7170661152329384E-9</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="8"/>
-        <v>4.4072344759943538E-2</v>
+        <v>7.3943169726073191E-3</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="8"/>
-        <v>7.2385884568489281E-2</v>
+        <v>2.6023019170821903E-2</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="8"/>
-        <v>9.6529299332443697E-2</v>
+        <v>5.0416655075784265E-2</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>0.11191051351503922</v>
+        <v>7.537689377508916E-2</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="8"/>
-        <v>0.11623535499542821</v>
+        <v>9.6529299332443724E-2</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="8"/>
-        <v>0.10952333757597014</v>
+        <v>0.1107261308393519</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="8"/>
-        <v>9.3764192235468086E-2</v>
+        <v>0.11626301953275996</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="8"/>
-        <v>7.2305197831693951E-2</v>
+        <v>0.11289887838273299</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="8"/>
-        <v>4.9094672196191146E-2</v>
+        <v>0.10169371076024884</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="8"/>
-        <v>2.7919154683383105E-2</v>
+        <v>8.4700830871739685E-2</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="8"/>
-        <v>1.1760380607675494E-2</v>
+        <v>6.456573722497945E-2</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="8"/>
-        <v>2.3666674996206758E-3</v>
+        <v>4.4091782669827585E-2</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="8"/>
-        <v>8.8536740244231059E-5</v>
+        <v>2.5832283064653822E-2</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="8"/>
-        <v>3.9788598782752342E-3</v>
+        <v>1.1760380607675392E-2</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="8"/>
-        <v>1.2112377496444978E-2</v>
+        <v>3.0534289526050716E-3</v>
       </c>
       <c r="AD6" s="1">
         <f t="shared" si="8"/>
-        <v>2.2045622278371202E-2</v>
+        <v>1.0250120341339409E-5</v>
       </c>
       <c r="AE6" s="1">
         <f t="shared" si="8"/>
-        <v>3.1321082709296198E-2</v>
+        <v>2.100074553655826E-3</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="8"/>
-        <v>3.7920607317466555E-2</v>
+        <v>8.1240551165423815E-3</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="8"/>
-        <v>4.059094876518967E-2</v>
+        <v>1.645629714146379E-2</v>
       </c>
       <c r="AH6" s="1">
         <f t="shared" si="8"/>
-        <v>3.8994501875192364E-2</v>
+        <v>2.5323030895978555E-2</v>
       </c>
       <c r="AI6" s="1">
         <f t="shared" si="8"/>
-        <v>3.367434667030441E-2</v>
+        <v>3.3076644353719577E-2</v>
       </c>
       <c r="AJ6" s="1">
         <f t="shared" si="8"/>
-        <v>2.5857704773909085E-2</v>
+        <v>3.8425620967440878E-2</v>
       </c>
       <c r="AK6" s="1">
         <f t="shared" si="8"/>
-        <v>1.7149582489626409E-2</v>
+        <v>4.0590948765189677E-2</v>
       </c>
       <c r="AL6" s="1">
         <f t="shared" si="8"/>
-        <v>9.1842176515093982E-3</v>
+        <v>3.9372571710639757E-2</v>
       </c>
       <c r="AM6" s="1">
         <f t="shared" si="8"/>
-        <v>3.3039666144880154E-3</v>
+        <v>3.5123841539243375E-2</v>
       </c>
       <c r="AN6" s="1">
         <f t="shared" si="8"/>
-        <v>3.2414778445554257E-4</v>
+        <v>2.8645532886022181E-2</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="8"/>
-        <v>4.2116765766964592E-4</v>
+        <v>2.102189179579244E-2</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="8"/>
-        <v>3.1547194166082829E-3</v>
+        <v>1.3427995992551267E-2</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="8"/>
-        <v>7.608353588793952E-3</v>
+        <v>6.9396994985670476E-3</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="8"/>
-        <v>1.2611278629775921E-2</v>
+        <v>2.3746497552408026E-3</v>
       </c>
       <c r="AS6" s="1">
         <f t="shared" si="8"/>
-        <v>1.6991557292206725E-2</v>
+        <v>1.8603869410807817E-4</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="8"/>
-        <v>1.9808706800922986E-2</v>
+        <v>4.2116765766966944E-4</v>
       </c>
       <c r="AU6" s="1">
         <f t="shared" si="8"/>
-        <v>2.0521742098115095E-2</v>
+        <v>2.7461850620743656E-3</v>
       </c>
       <c r="AV6" s="1">
         <f t="shared" si="8"/>
-        <v>1.906465106676427E-2</v>
+        <v>6.52817917367245E-3</v>
       </c>
       <c r="AW6" s="1">
         <f t="shared" si="8"/>
-        <v>1.5821520710631941E-2</v>
+        <v>1.0957673531511445E-2</v>
       </c>
       <c r="AX6" s="1">
         <f t="shared" si="8"/>
-        <v>1.1513824221802502E-2</v>
+        <v>1.5189576471331413E-2</v>
       </c>
       <c r="AY6" s="1">
         <f t="shared" si="8"/>
-        <v>7.0287792337954845E-3</v>
+        <v>1.8479334237034687E-2</v>
       </c>
       <c r="AZ6" s="1">
         <f t="shared" si="8"/>
-        <v>3.2272607214834568E-3</v>
+        <v>2.0293390562661408E-2</v>
       </c>
       <c r="BA6" s="1">
         <f t="shared" si="8"/>
-        <v>7.710821587461759E-4</v>
+        <v>2.0378471767285848E-2</v>
       </c>
       <c r="BB6" s="1">
         <f t="shared" si="8"/>
-        <v>2.8317803512479152E-6</v>
+        <v>1.8781670791801475E-2</v>
       </c>
       <c r="BC6" s="1">
         <f t="shared" si="8"/>
-        <v>8.986946760961204E-4</v>
+        <v>1.5821520710631875E-2</v>
       </c>
       <c r="BD6" s="1">
         <f t="shared" si="8"/>
-        <v>3.0987234198208802E-3</v>
+        <v>1.201791102224666E-2</v>
       </c>
       <c r="BE6" s="1">
         <f t="shared" si="8"/>
-        <v>6.0032089530543042E-3</v>
+        <v>7.9946543799621541E-3</v>
       </c>
       <c r="BF6" s="1">
         <f t="shared" si="8"/>
-        <v>8.9112799181310497E-3</v>
+        <v>4.3719348209800045E-3</v>
       </c>
       <c r="BG6" s="1">
         <f t="shared" si="8"/>
-        <v>1.1170910833469433E-2</v>
+        <v>1.6663785551008286E-3</v>
       </c>
       <c r="BH6" s="1">
         <f t="shared" si="8"/>
-        <v>1.2309190188480578E-2</v>
+        <v>2.14177610699528E-4</v>
       </c>
       <c r="BI6" s="1">
         <f t="shared" si="8"/>
-        <v>1.2117651419015926E-2</v>
+        <v>1.2809240732181525E-4</v>
       </c>
       <c r="BJ6" s="1">
         <f t="shared" si="8"/>
-        <v>1.0678131747330861E-2</v>
+        <v>1.2931179278235754E-3</v>
       </c>
       <c r="BK6" s="1">
         <f t="shared" si="8"/>
-        <v>8.327574312692685E-3</v>
+        <v>3.3991535349825555E-3</v>
       </c>
       <c r="BL6" s="1">
         <f t="shared" si="8"/>
-        <v>5.5726868575502898E-3</v>
+        <v>6.0032089530543042E-3</v>
       </c>
       <c r="BM6" s="1">
         <f t="shared" si="8"/>
-        <v>2.97492132607913E-3</v>
+        <v>8.6093917645221011E-3</v>
       </c>
       <c r="BN6" s="1">
         <f t="shared" si="8"/>
-        <v>1.0310822294064821E-3</v>
+        <v>1.0752750537602229E-2</v>
       </c>
       <c r="BO6" s="1">
         <f t="shared" ref="BO6:BZ6" si="9">POWER(SIN(0.5*3.14*SQRT(1+POWER(BO7/3.14,2))),2)/(1+POWER(BO7/3.14,2))</f>
-        <v>7.429370284726978E-5</v>
+        <v>1.2073221453618879E-2</v>
       </c>
       <c r="BP6" s="1">
         <f t="shared" si="9"/>
-        <v>2.1447618377151874E-4</v>
+        <v>1.2368290298921062E-2</v>
       </c>
       <c r="BQ6" s="1">
         <f t="shared" si="9"/>
-        <v>1.3283128433808542E-3</v>
+        <v>1.1617041453287768E-2</v>
       </c>
       <c r="BR6" s="1">
         <f t="shared" si="9"/>
-        <v>3.097984662929181E-3</v>
+        <v>9.9732824082638151E-3</v>
       </c>
       <c r="BS6" s="1">
         <f t="shared" si="9"/>
-        <v>5.0879837294228198E-3</v>
+        <v>7.7305531091898128E-3</v>
       </c>
       <c r="BT6" s="1">
         <f t="shared" si="9"/>
-        <v>6.8420715604625851E-3</v>
+        <v>5.2662275554834327E-3</v>
       </c>
       <c r="BU6" s="1">
         <f t="shared" si="9"/>
-        <v>7.9792688697164563E-3</v>
+        <v>2.9749213260791482E-3</v>
       </c>
       <c r="BV6" s="1">
         <f t="shared" si="9"/>
-        <v>8.2690840546160039E-3</v>
+        <v>1.2026201008363045E-3</v>
       </c>
       <c r="BW6" s="1">
         <f t="shared" si="9"/>
-        <v>7.671507438544293E-3</v>
+        <v>1.9223791572510899E-4</v>
       </c>
       <c r="BX6" s="1">
         <f t="shared" si="9"/>
-        <v>6.3353223338019488E-3</v>
+        <v>4.8908567771986598E-5</v>
       </c>
       <c r="BY6" s="1">
         <f t="shared" si="9"/>
-        <v>4.5572285961443968E-3</v>
+        <v>7.2968141756661695E-4</v>
       </c>
       <c r="BZ6" s="1">
         <f t="shared" si="9"/>
-        <v>2.7122549517811108E-3</v>
+        <v>2.0580811370394607E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:78">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <f>2*3.14*B1*$B$9/$D$10</f>
-        <v>0.47100000000000009</v>
+        <v>0.41866666666666674</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:BN7" si="10">2*3.14*C1*$B$9/$D$10</f>
-        <v>0.94200000000000017</v>
+        <v>0.83733333333333348</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="10"/>
-        <v>1.4129999999999998</v>
+        <v>1.2559999999999998</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="10"/>
-        <v>1.8840000000000003</v>
+        <v>1.674666666666667</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="10"/>
-        <v>2.3549999999999995</v>
+        <v>2.0933333333333333</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="10"/>
-        <v>2.8259999999999996</v>
+        <v>2.5119999999999996</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="10"/>
-        <v>3.2969999999999997</v>
+        <v>2.9306666666666668</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="10"/>
-        <v>3.7680000000000007</v>
+        <v>3.3493333333333339</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="10"/>
-        <v>4.2389999999999999</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="10"/>
-        <v>4.7099999999999991</v>
+        <v>4.1866666666666665</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="10"/>
-        <v>5.1810000000000009</v>
+        <v>4.6053333333333342</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="10"/>
-        <v>5.6519999999999992</v>
+        <v>5.0239999999999991</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="10"/>
-        <v>6.1230000000000002</v>
+        <v>5.4426666666666668</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="10"/>
-        <v>6.5939999999999994</v>
+        <v>5.8613333333333335</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="10"/>
-        <v>7.0649999999999995</v>
+        <v>6.28</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="10"/>
-        <v>7.5360000000000014</v>
+        <v>6.6986666666666679</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="10"/>
-        <v>8.0069999999999997</v>
+        <v>7.1173333333333328</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="10"/>
-        <v>8.4779999999999998</v>
+        <v>7.5359999999999996</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="10"/>
-        <v>8.9489999999999998</v>
+        <v>7.9546666666666663</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="10"/>
-        <v>9.4199999999999982</v>
+        <v>8.3733333333333331</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="10"/>
-        <v>9.891</v>
+        <v>8.7919999999999998</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="10"/>
-        <v>10.362000000000002</v>
+        <v>9.2106666666666683</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" si="10"/>
-        <v>10.832999999999998</v>
+        <v>9.6293333333333333</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="10"/>
-        <v>11.303999999999998</v>
+        <v>10.047999999999998</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="10"/>
-        <v>11.774999999999999</v>
+        <v>10.466666666666667</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="10"/>
-        <v>12.246</v>
+        <v>10.885333333333334</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="10"/>
-        <v>12.717000000000002</v>
+        <v>11.304000000000002</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" si="10"/>
-        <v>13.187999999999999</v>
+        <v>11.722666666666667</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="10"/>
-        <v>13.658999999999999</v>
+        <v>12.141333333333332</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" si="10"/>
-        <v>14.129999999999999</v>
+        <v>12.56</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="10"/>
-        <v>14.600999999999999</v>
+        <v>12.978666666666665</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="10"/>
-        <v>15.072000000000003</v>
+        <v>13.397333333333336</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" si="10"/>
-        <v>15.542999999999999</v>
+        <v>13.815999999999999</v>
       </c>
       <c r="AI7" s="1">
         <f t="shared" si="10"/>
-        <v>16.013999999999999</v>
+        <v>14.234666666666666</v>
       </c>
       <c r="AJ7" s="1">
         <f t="shared" si="10"/>
-        <v>16.484999999999999</v>
+        <v>14.653333333333334</v>
       </c>
       <c r="AK7" s="1">
         <f t="shared" si="10"/>
-        <v>16.956</v>
+        <v>15.071999999999999</v>
       </c>
       <c r="AL7" s="1">
         <f t="shared" si="10"/>
-        <v>17.427</v>
+        <v>15.490666666666666</v>
       </c>
       <c r="AM7" s="1">
         <f t="shared" si="10"/>
-        <v>17.898</v>
+        <v>15.909333333333333</v>
       </c>
       <c r="AN7" s="1">
         <f t="shared" si="10"/>
-        <v>18.369</v>
+        <v>16.327999999999999</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="10"/>
-        <v>18.839999999999996</v>
+        <v>16.746666666666666</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="10"/>
-        <v>19.310999999999996</v>
+        <v>17.165333333333333</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="10"/>
-        <v>19.782</v>
+        <v>17.584</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="10"/>
-        <v>20.253</v>
+        <v>18.002666666666666</v>
       </c>
       <c r="AS7" s="1">
         <f t="shared" si="10"/>
-        <v>20.724000000000004</v>
+        <v>18.421333333333337</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="10"/>
-        <v>21.194999999999997</v>
+        <v>18.84</v>
       </c>
       <c r="AU7" s="1">
         <f t="shared" si="10"/>
-        <v>21.665999999999997</v>
+        <v>19.258666666666667</v>
       </c>
       <c r="AV7" s="1">
         <f t="shared" si="10"/>
-        <v>22.137</v>
+        <v>19.677333333333333</v>
       </c>
       <c r="AW7" s="1">
         <f t="shared" si="10"/>
-        <v>22.607999999999997</v>
+        <v>20.095999999999997</v>
       </c>
       <c r="AX7" s="1">
         <f t="shared" si="10"/>
-        <v>23.079000000000001</v>
+        <v>20.514666666666667</v>
       </c>
       <c r="AY7" s="1">
         <f t="shared" si="10"/>
-        <v>23.549999999999997</v>
+        <v>20.933333333333334</v>
       </c>
       <c r="AZ7" s="1">
         <f t="shared" si="10"/>
-        <v>24.020999999999997</v>
+        <v>21.352</v>
       </c>
       <c r="BA7" s="1">
         <f t="shared" si="10"/>
-        <v>24.492000000000001</v>
+        <v>21.770666666666667</v>
       </c>
       <c r="BB7" s="1">
         <f t="shared" si="10"/>
-        <v>24.962999999999997</v>
+        <v>22.18933333333333</v>
       </c>
       <c r="BC7" s="1">
         <f t="shared" si="10"/>
-        <v>25.434000000000005</v>
+        <v>22.608000000000004</v>
       </c>
       <c r="BD7" s="1">
         <f t="shared" si="10"/>
-        <v>25.904999999999998</v>
+        <v>23.026666666666667</v>
       </c>
       <c r="BE7" s="1">
         <f t="shared" si="10"/>
-        <v>26.375999999999998</v>
+        <v>23.445333333333334</v>
       </c>
       <c r="BF7" s="1">
         <f t="shared" si="10"/>
-        <v>26.846999999999998</v>
+        <v>23.863999999999997</v>
       </c>
       <c r="BG7" s="1">
         <f t="shared" si="10"/>
-        <v>27.317999999999998</v>
+        <v>24.282666666666664</v>
       </c>
       <c r="BH7" s="1">
         <f t="shared" si="10"/>
-        <v>27.789000000000005</v>
+        <v>24.701333333333338</v>
       </c>
       <c r="BI7" s="1">
         <f t="shared" si="10"/>
-        <v>28.259999999999998</v>
+        <v>25.12</v>
       </c>
       <c r="BJ7" s="1">
         <f t="shared" si="10"/>
-        <v>28.730999999999998</v>
+        <v>25.538666666666664</v>
       </c>
       <c r="BK7" s="1">
         <f t="shared" si="10"/>
-        <v>29.201999999999998</v>
+        <v>25.957333333333331</v>
       </c>
       <c r="BL7" s="1">
         <f t="shared" si="10"/>
-        <v>29.672999999999998</v>
+        <v>26.375999999999998</v>
       </c>
       <c r="BM7" s="1">
         <f t="shared" si="10"/>
-        <v>30.144000000000005</v>
+        <v>26.794666666666672</v>
       </c>
       <c r="BN7" s="1">
         <f t="shared" si="10"/>
-        <v>30.614999999999998</v>
+        <v>27.213333333333335</v>
       </c>
       <c r="BO7" s="1">
         <f t="shared" ref="BO7:BZ7" si="11">2*3.14*BO1*$B$9/$D$10</f>
-        <v>31.085999999999999</v>
+        <v>27.631999999999998</v>
       </c>
       <c r="BP7" s="1">
         <f t="shared" si="11"/>
-        <v>31.556999999999999</v>
+        <v>28.050666666666665</v>
       </c>
       <c r="BQ7" s="1">
         <f t="shared" si="11"/>
-        <v>32.027999999999999</v>
+        <v>28.469333333333331</v>
       </c>
       <c r="BR7" s="1">
         <f t="shared" si="11"/>
-        <v>32.498999999999995</v>
+        <v>28.887999999999998</v>
       </c>
       <c r="BS7" s="1">
         <f t="shared" si="11"/>
-        <v>32.97</v>
+        <v>29.306666666666668</v>
       </c>
       <c r="BT7" s="1">
         <f t="shared" si="11"/>
-        <v>33.440999999999995</v>
+        <v>29.725333333333332</v>
       </c>
       <c r="BU7" s="1">
         <f t="shared" si="11"/>
-        <v>33.911999999999999</v>
+        <v>30.143999999999998</v>
       </c>
       <c r="BV7" s="1">
         <f t="shared" si="11"/>
-        <v>34.382999999999996</v>
+        <v>30.562666666666665</v>
       </c>
       <c r="BW7" s="1">
         <f t="shared" si="11"/>
-        <v>34.853999999999999</v>
+        <v>30.981333333333332</v>
       </c>
       <c r="BX7" s="1">
         <f t="shared" si="11"/>
-        <v>35.325000000000003</v>
+        <v>31.400000000000002</v>
       </c>
       <c r="BY7" s="1">
         <f t="shared" si="11"/>
-        <v>35.795999999999999</v>
+        <v>31.818666666666665</v>
       </c>
       <c r="BZ7" s="1">
         <f t="shared" si="11"/>
-        <v>36.266999999999996</v>
+        <v>32.237333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:78">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4322,334 +5433,334 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:78">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
         <v>0.55000000000000004</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="16.8" customHeight="1">
+    <row r="12" spans="1:78" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <f>1-B2</f>
-        <v>7.3177815019080938E-3</v>
+        <v>8.4829823657466275E-3</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ref="C12:BN12" si="12">1-C2</f>
-        <v>2.9023418391011191E-2</v>
+        <v>3.3599784267021482E-2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="12"/>
-        <v>6.4390631366598283E-2</v>
+        <v>7.4376662652666403E-2</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="12"/>
-        <v>0.11224240004974495</v>
+        <v>0.12924324786516639</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="12"/>
-        <v>0.17100160782169394</v>
+        <v>0.19611043032077946</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="12"/>
-        <v>0.23875766483063698</v>
+        <v>0.2724724354516862</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="12"/>
-        <v>0.31334656242293757</v>
+        <v>0.35552808096951805</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="12"/>
-        <v>0.39244055796799948</v>
+        <v>0.44231456036820116</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="12"/>
-        <v>0.47364326362363418</v>
+        <v>0.52984647503361249</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="12"/>
-        <v>0.55458570249884853</v>
+        <v>0.61525264420548331</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="12"/>
-        <v>0.63301890995023957</v>
+        <v>0.69590346470796272</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="12"/>
-        <v>0.70689889344964496</v>
+        <v>0.76952225131918783</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="12"/>
-        <v>0.7744602069027311</v>
+        <v>0.83427501896220346</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="12"/>
-        <v>0.83427501896220346</v>
+        <v>0.88883450230822414</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="12"/>
-        <v>0.88529532490021712</v>
+        <v>0.93241576177454222</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="12"/>
-        <v>0.92687682576595776</v>
+        <v>0.9647823998903079</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="12"/>
-        <v>0.958783929672272</v>
+        <v>0.9862241052513977</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="12"/>
-        <v>0.98117626861120077</v>
+        <v>0.99750785010245624</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="12"/>
-        <v>0.99457802107247328</v>
+        <v>0.99980649642000441</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="12"/>
-        <v>0.9998321398864245</v>
+        <v>0.99460973174354639</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="12"/>
-        <v>0.99804226563292275</v>
+        <v>0.98362309549444116</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="12"/>
-        <v>0.99050562582072499</v>
+        <v>0.96866132652900083</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" si="12"/>
-        <v>0.97864055535364691</v>
+        <v>0.95154234467015253</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="12"/>
-        <v>0.96391241152245388</v>
+        <v>0.93398787918191917</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>0.94776159482603894</v>
+        <v>0.9175361056291913</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="12"/>
-        <v>0.93153713412610673</v>
+        <v>0.9034707006675563</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="12"/>
-        <v>0.91643886991738077</v>
+        <v>0.89276954091799865</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="12"/>
-        <v>0.9034707006675563</v>
+        <v>0.88607493873007148</v>
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="12"/>
-        <v>0.89340667919608696</v>
+        <v>0.88368591291790499</v>
       </c>
       <c r="AE12" s="1">
         <f t="shared" si="12"/>
-        <v>0.88677099888660571</v>
+        <v>0.88557162620600838</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="12"/>
-        <v>0.88383213580338793</v>
+        <v>0.89140386818743034</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="12"/>
-        <v>0.88461065536929173</v>
+        <v>0.90060539802932704</v>
       </c>
       <c r="AH12" s="1">
         <f t="shared" si="12"/>
-        <v>0.88889949184023598</v>
+        <v>0.91241014524402753</v>
       </c>
       <c r="AI12" s="1">
         <f t="shared" si="12"/>
-        <v>0.89629490165194103</v>
+        <v>0.92593074170005163</v>
       </c>
       <c r="AJ12" s="1">
         <f t="shared" si="12"/>
-        <v>0.90623580776453216</v>
+        <v>0.94022864544746099</v>
       </c>
       <c r="AK12" s="1">
         <f t="shared" si="12"/>
-        <v>0.91804891349865159</v>
+        <v>0.95438221751481755</v>
       </c>
       <c r="AL12" s="1">
         <f t="shared" si="12"/>
-        <v>0.93099678429058541</v>
+        <v>0.96754850676006354</v>
       </c>
       <c r="AM12" s="1">
         <f t="shared" si="12"/>
-        <v>0.94432607819031422</v>
+        <v>0.97901514680202162</v>
       </c>
       <c r="AN12" s="1">
         <f t="shared" si="12"/>
-        <v>0.95731324539214135</v>
+        <v>0.98823961939232452</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="12"/>
-        <v>0.96930529953356015</v>
+        <v>0.99487412547416099</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="12"/>
-        <v>0.9797536672192535</v>
+        <v>0.99877535730201417</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="12"/>
-        <v>0.98823961939232452</v>
+        <v>0.99999950958913764</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="12"/>
-        <v>0.9944903466289049</v>
+        <v>0.99878383541454629</v>
       </c>
       <c r="AS12" s="1">
         <f t="shared" si="12"/>
-        <v>0.9983853256969083</v>
+        <v>0.99551688229821822</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="12"/>
-        <v>0.99995320206979588</v>
+        <v>0.99070018606101495</v>
       </c>
       <c r="AU12" s="1">
         <f t="shared" si="12"/>
-        <v>0.99935994957755447</v>
+        <v>0.98490462022863767</v>
       </c>
       <c r="AV12" s="1">
         <f t="shared" si="12"/>
-        <v>0.99688953470680353</v>
+        <v>0.97872477879854514</v>
       </c>
       <c r="AW12" s="1">
         <f t="shared" si="12"/>
-        <v>0.99291868515677328</v>
+        <v>0.97273470931603734</v>
       </c>
       <c r="AX12" s="1">
         <f t="shared" si="12"/>
-        <v>0.987887622503555</v>
+        <v>0.96744802710814548</v>
       </c>
       <c r="AY12" s="1">
         <f t="shared" si="12"/>
-        <v>0.98226875687408755</v>
+        <v>0.96328496073117975</v>
       </c>
       <c r="AZ12" s="1">
         <f t="shared" si="12"/>
-        <v>0.97653535465396191</v>
+        <v>0.96054824585196286</v>
       </c>
       <c r="BA12" s="1">
         <f t="shared" si="12"/>
-        <v>0.97113208322303834</v>
+        <v>0.95940905123481035</v>
       </c>
       <c r="BB12" s="1">
         <f t="shared" si="12"/>
-        <v>0.96644912124963822</v>
+        <v>0.95990334233253072</v>
       </c>
       <c r="BC12" s="1">
         <f t="shared" si="12"/>
-        <v>0.96280121688837605</v>
+        <v>0.96193832191099637</v>
       </c>
       <c r="BD12" s="1">
         <f t="shared" si="12"/>
-        <v>0.96041270173837956</v>
+        <v>0.96530788654491806</v>
       </c>
       <c r="BE12" s="1">
         <f t="shared" si="12"/>
-        <v>0.95940905123481035</v>
+        <v>0.96971544910208529</v>
       </c>
       <c r="BF12" s="1">
         <f t="shared" si="12"/>
-        <v>0.95981514939950552</v>
+        <v>0.97480203691241951</v>
       </c>
       <c r="BG12" s="1">
         <f t="shared" si="12"/>
-        <v>0.96155999452614305</v>
+        <v>0.98017730748602883</v>
       </c>
       <c r="BH12" s="1">
         <f t="shared" si="12"/>
-        <v>0.96448719758094614</v>
+        <v>0.98545103932364275</v>
       </c>
       <c r="BI12" s="1">
         <f t="shared" si="12"/>
-        <v>0.96837029875806413</v>
+        <v>0.99026275187925417</v>
       </c>
       <c r="BJ12" s="1">
         <f t="shared" si="12"/>
-        <v>0.97293167716075613</v>
+        <v>0.99430737056712748</v>
       </c>
       <c r="BK12" s="1">
         <f t="shared" si="12"/>
-        <v>0.97786366603553976</v>
+        <v>0.99735525312538076</v>
       </c>
       <c r="BL12" s="1">
         <f t="shared" si="12"/>
-        <v>0.98285041751037361</v>
+        <v>0.9992653971035429</v>
       </c>
       <c r="BM12" s="1">
         <f t="shared" si="12"/>
-        <v>0.98758908646410237</v>
+        <v>0.99999121328134422</v>
       </c>
       <c r="BN12" s="1">
         <f t="shared" si="12"/>
-        <v>0.9918090172337275</v>
+        <v>0.99957883234233036</v>
       </c>
       <c r="BO12" s="1">
         <f t="shared" ref="BO12:BZ12" si="13">1-BO2</f>
-        <v>0.9952878083445803</v>
+        <v>0.99815846866137548</v>
       </c>
       <c r="BP12" s="1">
         <f t="shared" si="13"/>
-        <v>0.99786338395106788</v>
+        <v>0.99592985594809103</v>
       </c>
       <c r="BQ12" s="1">
         <f t="shared" si="13"/>
-        <v>0.99944149758013667</v>
+        <v>0.99314316157181448</v>
       </c>
       <c r="BR12" s="1">
         <f t="shared" si="13"/>
-        <v>0.99999841349299501</v>
+        <v>0.99007705521569755</v>
       </c>
       <c r="BS12" s="1">
         <f t="shared" si="13"/>
-        <v>0.99957883234233036</v>
+        <v>0.98701573873050574</v>
       </c>
       <c r="BT12" s="1">
         <f t="shared" si="13"/>
-        <v>0.99828943037595519</v>
+        <v>0.98422673411669204</v>
       </c>
       <c r="BU12" s="1">
         <f t="shared" si="13"/>
-        <v>0.99628864680816864</v>
+        <v>0.98194108248928136</v>
       </c>
       <c r="BV12" s="1">
         <f t="shared" si="13"/>
-        <v>0.99377356682821283</v>
+        <v>0.98033734536197137</v>
       </c>
       <c r="BW12" s="1">
         <f t="shared" si="13"/>
-        <v>0.99096489667023024</v>
+        <v>0.97953044534567191</v>
       </c>
       <c r="BX12" s="1">
         <f t="shared" si="13"/>
-        <v>0.98809110538044698</v>
+        <v>0.97956596699228804</v>
       </c>
       <c r="BY12" s="1">
         <f t="shared" si="13"/>
-        <v>0.98537281331989546</v>
+        <v>0.98042009399644914</v>
       </c>
       <c r="BZ12" s="1">
         <f t="shared" si="13"/>
-        <v>0.98300844270779331</v>
+        <v>0.98200492097021352</v>
       </c>
     </row>
-    <row r="13" spans="1:78">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4962,317 +6073,317 @@
         <v>0.99399679104694572</v>
       </c>
     </row>
-    <row r="14" spans="1:78">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
         <f>1-B6</f>
-        <v>2.2279840509617288E-2</v>
+        <v>1.7635793783284059E-2</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:BN14" si="16">1-C6</f>
-        <v>8.6845845408770161E-2</v>
+        <v>6.9116578987549082E-2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="16"/>
-        <v>0.18717803059372962</v>
+        <v>0.15031517281021112</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="16"/>
-        <v>0.31334656242293779</v>
+        <v>0.25482252658484217</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="16"/>
-        <v>0.45327580825847236</v>
+        <v>0.37459727372025786</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="16"/>
-        <v>0.59424943988402412</v>
+        <v>0.50076738100406859</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="16"/>
-        <v>0.7244435287332831</v>
+        <v>0.62449373605786973</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="16"/>
-        <v>0.83427501896220357</v>
+        <v>0.73779946705592425</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="16"/>
-        <v>0.91738614383950778</v>
+        <v>0.83427501896220346</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="16"/>
-        <v>0.97114475883827367</v>
+        <v>0.90958589987746408</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99661624555964423</v>
+        <v>0.96173525129905912</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99804226563292286</v>
+        <v>0.9910636574591476</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="16"/>
-        <v>0.9819325894397708</v>
+        <v>0.99999999428293385</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="16"/>
-        <v>0.95592765524005641</v>
+        <v>0.99260568302739272</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="16"/>
-        <v>0.92761411543151073</v>
+        <v>0.97397698082917805</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="16"/>
-        <v>0.9034707006675563</v>
+        <v>0.9495833449242157</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="16"/>
-        <v>0.88808948648496078</v>
+        <v>0.92462310622491084</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="16"/>
-        <v>0.88376464500457175</v>
+        <v>0.9034707006675563</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="16"/>
-        <v>0.8904766624240299</v>
+        <v>0.8892738691606481</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="16"/>
-        <v>0.90623580776453194</v>
+        <v>0.88373698046724003</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="16"/>
-        <v>0.92769480216830602</v>
+        <v>0.88710112161726706</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="16"/>
-        <v>0.95090532780380888</v>
+        <v>0.8983062892397512</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="16"/>
-        <v>0.97208084531661687</v>
+        <v>0.91529916912826037</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98823961939232452</v>
+        <v>0.93543426277502051</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99763333250037933</v>
+        <v>0.95590821733017239</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99991146325975577</v>
+        <v>0.97416771693534621</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99602114012172471</v>
+        <v>0.98823961939232463</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.987887622503555</v>
+        <v>0.99694657104739492</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="16"/>
-        <v>0.97795437772162885</v>
+        <v>0.99998974987965861</v>
       </c>
       <c r="AE14" s="1">
         <f t="shared" si="16"/>
-        <v>0.96867891729070377</v>
+        <v>0.9978999254463442</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="16"/>
-        <v>0.9620793926825334</v>
+        <v>0.99187594488345765</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="16"/>
-        <v>0.95940905123481035</v>
+        <v>0.98354370285853621</v>
       </c>
       <c r="AH14" s="1">
         <f t="shared" si="16"/>
-        <v>0.96100549812480762</v>
+        <v>0.97467696910402146</v>
       </c>
       <c r="AI14" s="1">
         <f t="shared" si="16"/>
-        <v>0.96632565332969556</v>
+        <v>0.9669233556462804</v>
       </c>
       <c r="AJ14" s="1">
         <f t="shared" si="16"/>
-        <v>0.97414229522609097</v>
+        <v>0.96157437903255916</v>
       </c>
       <c r="AK14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98285041751037361</v>
+        <v>0.95940905123481035</v>
       </c>
       <c r="AL14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99081578234849055</v>
+        <v>0.96062742828936021</v>
       </c>
       <c r="AM14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99669603338551194</v>
+        <v>0.96487615846075658</v>
       </c>
       <c r="AN14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99967585221554445</v>
+        <v>0.97135446711397777</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99957883234233036</v>
+        <v>0.97897810820420761</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99684528058339172</v>
+        <v>0.98657200400744871</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99239164641120603</v>
+        <v>0.9930603005014329</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98738872137022404</v>
+        <v>0.99762535024475918</v>
       </c>
       <c r="AS14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98300844270779331</v>
+        <v>0.99981396130589195</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98019129319907705</v>
+        <v>0.99957883234233036</v>
       </c>
       <c r="AU14" s="1">
         <f t="shared" si="16"/>
-        <v>0.97947825790188492</v>
+        <v>0.99725381493792564</v>
       </c>
       <c r="AV14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98093534893323575</v>
+        <v>0.99347182082632757</v>
       </c>
       <c r="AW14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98417847928936808</v>
+        <v>0.98904232646848855</v>
       </c>
       <c r="AX14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98848617577819753</v>
+        <v>0.98481042352866854</v>
       </c>
       <c r="AY14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99297122076620448</v>
+        <v>0.98152066576296526</v>
       </c>
       <c r="AZ14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99677273927851651</v>
+        <v>0.97970660943733856</v>
       </c>
       <c r="BA14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99922891784125378</v>
+        <v>0.9796215282327142</v>
       </c>
       <c r="BB14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99999716821964879</v>
+        <v>0.98121832920819851</v>
       </c>
       <c r="BC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99910130532390384</v>
+        <v>0.98417847928936808</v>
       </c>
       <c r="BD14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99690127658017913</v>
+        <v>0.9879820889777533</v>
       </c>
       <c r="BE14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99399679104694572</v>
+        <v>0.99200534562003784</v>
       </c>
       <c r="BF14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99108872008186899</v>
+        <v>0.99562806517902003</v>
       </c>
       <c r="BG14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98882908916653056</v>
+        <v>0.99833362144489912</v>
       </c>
       <c r="BH14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98769080981151947</v>
+        <v>0.99978582238930047</v>
       </c>
       <c r="BI14" s="1">
         <f t="shared" si="16"/>
-        <v>0.98788234858098412</v>
+        <v>0.99987190759267819</v>
       </c>
       <c r="BJ14" s="1">
         <f t="shared" si="16"/>
-        <v>0.9893218682526691</v>
+        <v>0.99870688207217639</v>
       </c>
       <c r="BK14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99167242568730729</v>
+        <v>0.99660084646501745</v>
       </c>
       <c r="BL14" s="1">
         <f t="shared" si="16"/>
-        <v>0.9944273131424497</v>
+        <v>0.99399679104694572</v>
       </c>
       <c r="BM14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99702507867392087</v>
+        <v>0.99139060823547787</v>
       </c>
       <c r="BN14" s="1">
         <f t="shared" si="16"/>
-        <v>0.99896891777059349</v>
+        <v>0.98924724946239773</v>
       </c>
       <c r="BO14" s="1">
         <f t="shared" ref="BO14:BZ14" si="17">1-BO6</f>
-        <v>0.99992570629715272</v>
+        <v>0.98792677854638111</v>
       </c>
       <c r="BP14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99978552381622843</v>
+        <v>0.98763170970107894</v>
       </c>
       <c r="BQ14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99867168715661914</v>
+        <v>0.98838295854671221</v>
       </c>
       <c r="BR14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99690201533707079</v>
+        <v>0.99002671759173622</v>
       </c>
       <c r="BS14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99491201627057713</v>
+        <v>0.9922694468908102</v>
       </c>
       <c r="BT14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99315792843953743</v>
+        <v>0.99473377244451655</v>
       </c>
       <c r="BU14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99202073113028355</v>
+        <v>0.99702507867392087</v>
       </c>
       <c r="BV14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99173091594538398</v>
+        <v>0.99879737989916373</v>
       </c>
       <c r="BW14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99232849256145572</v>
+        <v>0.99980776208427491</v>
       </c>
       <c r="BX14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99366467766619804</v>
+        <v>0.99995109143222805</v>
       </c>
       <c r="BY14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99544277140385562</v>
+        <v>0.99927031858243343</v>
       </c>
       <c r="BZ14" s="1">
         <f t="shared" si="17"/>
-        <v>0.99728774504821893</v>
+        <v>0.99794191886296058</v>
       </c>
     </row>
   </sheetData>
@@ -5284,25 +6395,424 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E1">
+        <v>0.4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G1">
+        <v>0.6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I1">
+        <v>0.8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M1">
+        <v>1.2</v>
+      </c>
+      <c r="N1" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="O1">
+        <v>1.4</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>7.3177815019080938E-3</v>
+      </c>
+      <c r="C2">
+        <v>2.9023418391011191E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.4390631366598283E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.11224240004974495</v>
+      </c>
+      <c r="F2">
+        <v>0.17100160782169394</v>
+      </c>
+      <c r="G2">
+        <v>0.23875766483063698</v>
+      </c>
+      <c r="H2">
+        <v>0.31334656242293757</v>
+      </c>
+      <c r="I2">
+        <v>0.39244055796799948</v>
+      </c>
+      <c r="J2">
+        <v>0.47364326362363418</v>
+      </c>
+      <c r="K2">
+        <v>0.55458570249884853</v>
+      </c>
+      <c r="L2">
+        <v>0.63301890995023957</v>
+      </c>
+      <c r="M2">
+        <v>0.70689889344964496</v>
+      </c>
+      <c r="N2">
+        <v>0.7744602069027311</v>
+      </c>
+      <c r="O2">
+        <v>0.83427501896220346</v>
+      </c>
+      <c r="P2">
+        <v>0.88529532490021712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1.1832566948911216E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.6686259931603691E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.10267970013654015</v>
+      </c>
+      <c r="E3">
+        <v>0.17682043591988061</v>
+      </c>
+      <c r="F3">
+        <v>0.26521017411874404</v>
+      </c>
+      <c r="G3">
+        <v>0.36330870999609355</v>
+      </c>
+      <c r="H3">
+        <v>0.46623694885363609</v>
+      </c>
+      <c r="I3">
+        <v>0.56909600725437182</v>
+      </c>
+      <c r="J3">
+        <v>0.66727850090967333</v>
+      </c>
+      <c r="K3">
+        <v>0.75674918729620955</v>
+      </c>
+      <c r="L3">
+        <v>0.83427501896220357</v>
+      </c>
+      <c r="M3">
+        <v>0.89758910821068638</v>
+      </c>
+      <c r="N3">
+        <v>0.94547870585540772</v>
+      </c>
+      <c r="O3">
+        <v>0.97779356378727877</v>
+      </c>
+      <c r="P3">
+        <v>0.99537744285477847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2.2279840509617288E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.6845845408770161E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.18717803059372962</v>
+      </c>
+      <c r="E4">
+        <v>0.31334656242293779</v>
+      </c>
+      <c r="F4">
+        <v>0.45327580825847236</v>
+      </c>
+      <c r="G4">
+        <v>0.59424943988402412</v>
+      </c>
+      <c r="H4">
+        <v>0.7244435287332831</v>
+      </c>
+      <c r="I4">
+        <v>0.83427501896220357</v>
+      </c>
+      <c r="J4">
+        <v>0.91738614383950778</v>
+      </c>
+      <c r="K4">
+        <v>0.97114475883827367</v>
+      </c>
+      <c r="L4">
+        <v>0.99661624555964423</v>
+      </c>
+      <c r="M4">
+        <v>0.99804226563292286</v>
+      </c>
+      <c r="N4">
+        <v>0.9819325894397708</v>
+      </c>
+      <c r="O4">
+        <v>0.95592765524005641</v>
+      </c>
+      <c r="P4">
+        <v>0.92761411543151073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <f>B2/SUM(B$2:B$4)</f>
+        <v>0.176629208930139</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:P6" si="0">C2/SUM(C$2:C$4)</f>
+        <v>0.17854464569885029</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.18176691343174334</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.18632245836344269</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.19224732273493997</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.19957745429317411</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.20833838361103138</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.21853103155373349</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.23011292999309826</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.24297509194919431</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.25691639107171144</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.27161985485181345</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.28663843053702803</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.30140034423173828</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.31524390552851578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:P8" si="1">B3/SUM(B$2:B$4)</f>
+        <v>0.28560253394476726</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.28720192866992589</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.28985229325764034</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.29352204064494791</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.29816062308349556</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.30368963239354513</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.30999239804264461</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.31690184664488702</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.32418789151774036</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.33154695935594614</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.33859798445816058</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.34489093921056241</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.34993474156201831</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.35324959996964211</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0.3544429341653812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.53776825712509368</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.5342534256312238</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.52838079331061638</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.52015550099160934</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.5095920541815645</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.49673291331328073</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.48166921834632404</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.46456712180137943</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.44569917848916135</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.4254779486948595</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.40448562447012798</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.3834892059376242</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.36342682790095365</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.34535005579861966</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0.33031316030610297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
